--- a/medicine/Sexualité et sexologie/Littérature_érotique/Littérature_érotique.xlsx
+++ b/medicine/Sexualité et sexologie/Littérature_érotique/Littérature_érotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
+          <t>Littérature_érotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La littérature érotique est un genre de littérature qui explore les thèmes de l'amour, du désir, de la passion et de l'activité sexuelle. Le sexe et l'érotisme, qui comptent parmi les thèmes les plus intemporels de la littérature, se retrouvent dans les plus anciens textes littéraires préservés, tissant leur fil à travers les siècles et les civilisations[1]. Citons par exemple : le Cantique des Cantiques, le Kamasutra, le Banquet de Platon, les chants de Sappho, L'Art d'aimer d'Ovide, le Satyricon de Pétrone, les écrits libertins et blasphématoires du Marquis de Sade, ou encore, la philosophie                       transgressive et sacrilège de Georges Bataille. Évoluant à travers les époques et les cultures, la littérature érotique a toujours oscillé entre la tolérance et la censure, reflétant les normes sociales et les tabous de l'époque. C'est un genre qui a été à la fois célébré pour sa beauté, sa poésie et son honnêteté, mais aussi souvent condamné, marginalisé et même interdit pour sa nature explicitement sexuelle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La littérature érotique est un genre de littérature qui explore les thèmes de l'amour, du désir, de la passion et de l'activité sexuelle. Le sexe et l'érotisme, qui comptent parmi les thèmes les plus intemporels de la littérature, se retrouvent dans les plus anciens textes littéraires préservés, tissant leur fil à travers les siècles et les civilisations. Citons par exemple : le Cantique des Cantiques, le Kamasutra, le Banquet de Platon, les chants de Sappho, L'Art d'aimer d'Ovide, le Satyricon de Pétrone, les écrits libertins et blasphématoires du Marquis de Sade, ou encore, la philosophie                       transgressive et sacrilège de Georges Bataille. Évoluant à travers les époques et les cultures, la littérature érotique a toujours oscillé entre la tolérance et la censure, reflétant les normes sociales et les tabous de l'époque. C'est un genre qui a été à la fois célébré pour sa beauté, sa poésie et son honnêteté, mais aussi souvent condamné, marginalisé et même interdit pour sa nature explicitement sexuelle.
 Les manifestations de la sexualité sont tantôt directes ou indirectes, allant des représentations de l’acte sexuel aux signes du désir en passant par les symboliques de l’amour. Elles font partie intégrante de la littérature et ne sont pas confinées spécifiquement dans un genre « érotique » ou « pornographique », aux frontières, d'ailleurs, floues et discutées. Des nombreuses conquêtes de Dom Juan à L'Amour fou d’André Breton, des Confessions de Jean-Jacques Rousseau sur ses premiers émois sexuels aux Femmes damnées de Charles Baudelaire, la sexualité s’immisce entre les pages des œuvres littéraires sans distinction de genre : essai, théâtre, roman, poésie, etc.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
+          <t>Littérature_érotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Érotisme ou pornographie ?</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distinction en littérature entre pornographie ou érotisme n'est pas toujours nette car, elle fait souvent entrer en jeu le contexte culturel et social et géographique de l'écriture ainsi que celui de la réception.
-Le Dictionnaire du littéraire définit l'érotisme comme « la part de la littérature amoureuse qui insiste sur les plaisirs de la chair », tout en soulignant que la limite entre érotisme et pornographie est encore source de débat. La notice mentionne aussi que le concept d'obscénité joue un rôle important dans la définition des termes, bien que son attachement à la moralité rende aussi la définition plutôt subjective. Le Dictionnaire mentionne aussi que l'érotisme et la pornographie partageraient le même objectif : représenter la jouissance personnelle. Toutefois, l'érotisme en littérature se serait distingué de la pornographie par une esthétisation de la représentation de la sexualité[2].
-Les motivations de l’auteur ou de l’éditeur peuvent elles aussi être considérées pour distinguer érotisme et pornographie. Certaines maisons d’éditions et certains auteurs se sont spécialisés dans la rédaction et la publication d’ouvrages érotiques ou pornographiques[3]. C'est le cas des éditeurs Gay et Doucé, Jean Fort, Charles Carrington ou, plus récemment, La Musardine et les éditions Tabou.
+Le Dictionnaire du littéraire définit l'érotisme comme « la part de la littérature amoureuse qui insiste sur les plaisirs de la chair », tout en soulignant que la limite entre érotisme et pornographie est encore source de débat. La notice mentionne aussi que le concept d'obscénité joue un rôle important dans la définition des termes, bien que son attachement à la moralité rende aussi la définition plutôt subjective. Le Dictionnaire mentionne aussi que l'érotisme et la pornographie partageraient le même objectif : représenter la jouissance personnelle. Toutefois, l'érotisme en littérature se serait distingué de la pornographie par une esthétisation de la représentation de la sexualité.
+Les motivations de l’auteur ou de l’éditeur peuvent elles aussi être considérées pour distinguer érotisme et pornographie. Certaines maisons d’éditions et certains auteurs se sont spécialisés dans la rédaction et la publication d’ouvrages érotiques ou pornographiques. C'est le cas des éditeurs Gay et Doucé, Jean Fort, Charles Carrington ou, plus récemment, La Musardine et les éditions Tabou.
 Un autre critère souvent utilisé pour distinguer l'érotisme de la pornographie est la crudité ou l'obscénité des mots utilisés et des scènes représentées, l'érotisme serait moins cru que la pornographie. Ces notions d'obscénité et de crudité sont cependant variables dans l'espace et le temps.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
+          <t>Littérature_érotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,18 +562,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grecs
-L'érotisme grec est empreint d'idéalisme et de passion, et inclut l'homosexualité (masculine : Platon, féminine : Sappho, les deux : Aristophane). Platon invente le « mythe des sphères », ou mythe de l'androgynie originelle : au début des temps, les êtres humains étaient doubles, homme-homme, femme-femme ou homme-femme[4], et l'intervention d'un dieu (Zeus) les a coupés en deux, pour en faire des hommes et des femmes séparées. Depuis, chaque être humain cherche sa moitié perdue depuis l'origine de l'humanité.
-Les philosophies ascétiques gréco-romaines (stoïcisme, épicurisme, scepticisme, cynisme[5]) cherchent à régler et à esthétiser la sexualité pour rendre compatible la tempérance et le plaisir, comme l'explique Michel Foucault dans Histoire de la sexualité, II et III.
-Aristote, quant à lui, ne théorise presque pas l'amour, mais il met l'accent sur l'amitié[6] (valeur également partagée par les écoles de sagesse ascétique[7]).
-Sappho (VIIe siècle av. J.-C.)[8], Poèmes
+          <t>Grecs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'érotisme grec est empreint d'idéalisme et de passion, et inclut l'homosexualité (masculine : Platon, féminine : Sappho, les deux : Aristophane). Platon invente le « mythe des sphères », ou mythe de l'androgynie originelle : au début des temps, les êtres humains étaient doubles, homme-homme, femme-femme ou homme-femme, et l'intervention d'un dieu (Zeus) les a coupés en deux, pour en faire des hommes et des femmes séparées. Depuis, chaque être humain cherche sa moitié perdue depuis l'origine de l'humanité.
+Les philosophies ascétiques gréco-romaines (stoïcisme, épicurisme, scepticisme, cynisme) cherchent à régler et à esthétiser la sexualité pour rendre compatible la tempérance et le plaisir, comme l'explique Michel Foucault dans Histoire de la sexualité, II et III.
+Aristote, quant à lui, ne théorise presque pas l'amour, mais il met l'accent sur l'amitié (valeur également partagée par les écoles de sagesse ascétique).
+Sappho (VIIe siècle av. J.-C.), Poèmes
 Aristophane (445 - 385 av. J.-C.), Lysistrata (cf. aussi son discours dans le Banquet de Platon)
-Platon (428/427 - 347/346 av. J.-C.), Banquet et Phèdre[9]
-Épicure (341 - 270 av. J.-C.), Sentences vaticanes, 18 et 51
-Latins
-L'érotisme latin est empreint de plaisir épicurien et de mesure. Ainsi, les poètes élégiaques (Catulle, Properce, Ovide, Tibulle) chantent l'amour entre personnes libres et consentantes, en dehors du cercle jaloux du mariage et de la sexualité facile représentée par la prostitution. Lucrèce condamne les excès de la passion amoureuse dévorante, et les illusions de l'amour idéal, pour ne retenir que le plaisir purement corporel et mesuré (considéré comme un besoin naturel). Dans l'élégie romaine, la sexualité est à nouveau célébrée dans la littérature, mais cette fois, sans la passion céleste et l'idéalisation du sentiment amoureux de Platon.
+Platon (428/427 - 347/346 av. J.-C.), Banquet et Phèdre
+Épicure (341 - 270 av. J.-C.), Sentences vaticanes, 18 et 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Latins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'érotisme latin est empreint de plaisir épicurien et de mesure. Ainsi, les poètes élégiaques (Catulle, Properce, Ovide, Tibulle) chantent l'amour entre personnes libres et consentantes, en dehors du cercle jaloux du mariage et de la sexualité facile représentée par la prostitution. Lucrèce condamne les excès de la passion amoureuse dévorante, et les illusions de l'amour idéal, pour ne retenir que le plaisir purement corporel et mesuré (considéré comme un besoin naturel). Dans l'élégie romaine, la sexualité est à nouveau célébrée dans la littérature, mais cette fois, sans la passion céleste et l'idéalisation du sentiment amoureux de Platon.
 La variante médio-platonicienne de l'érotisme latin se laisse aller à la passion, voire au mysticisme initiatique (Apulée et les Mystères isiaques).
-Lucrèce (98 - 54 av. J.-C.), De la nature des choses (livre IV)[10]
+Lucrèce (98 - 54 av. J.-C.), De la nature des choses (livre IV)
 Ovide (43 av. J.-C. - 17 ap.), Les Amours, L'Art d'aimer et Remèdes à l'amour
 Pétrone (14 - 66 ap. J.-C.), Satyricon
 Apulée (123 - 170 ap. J.-C.), L'Âne d'or ou les Métamorphoses
@@ -567,31 +620,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Littérature orientale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le Kamasutra
 Les Contes des Mille et une nuit
@@ -601,79 +656,44 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Mystique judéo-chrétienne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le langage érotique des grand(e)s mystiques est frappant, à la fois par sa chaste pureté et par sa violence amoureuse. Il s'inspire autant de la dialectique amoureuse de Platon, laquelle passait d'un érotisme corporel (Le Banquet) à un érotisme plus mystérieux, plus chaste, plus religieux (Phèdre), que de la Bible (notamment le Cantique des Cantiques dans l'Ancien Testament, qui décrit le périple de deux amoureux de manière imagée, et le Nouveau Testament).
-Les mystiques se décrivent comme les « époux(ses) » de Dieu, et parlent fréquemment d'union intime avec leur Dieu (voir Transverbération de sainte Thérèse[11]). Luther, quant à lui, parle de l'âme comme de l'« épouse du Christ »[12]. Jakob Böhme (1575-1624) parlera d'« Androgynie céleste ».
+Les mystiques se décrivent comme les « époux(ses) » de Dieu, et parlent fréquemment d'union intime avec leur Dieu (voir Transverbération de sainte Thérèse). Luther, quant à lui, parle de l'âme comme de l'« épouse du Christ ». Jakob Böhme (1575-1624) parlera d'« Androgynie céleste ».
 Le Cantique des Cantiques
 Angèle de Foligno (1248-1309), Le livre des Visions et Instructions
 Marguerite Porete (1250-1310), Le Miroir des âmes simples et anéanties
 Maître Eckhart (1260-1327), Traités et Sermons
 Catherine de Sienne (1347-1380), Dialogues
 Martin Luther (1483-1546), La Liberté du chrétien
-Thérèse d'Ávila (1515-1582)[13], Vie par elle-même et Le Château intérieur
+Thérèse d'Ávila (1515-1582), Vie par elle-même et Le Château intérieur
 Jean de la Croix (1542-1591), La Vive Flamme d'amour et Les Cantiques spirituels</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Littérature européenne</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Danemark
-Søren Kierkegaard (1813-1855), L'alternative (notamment le Journal du séducteur) (1843)
-Europe centrale
-Leopold von Sacher-Masoch (1836-1895), La Vénus à la fourrure (1870)
-Italie
-Pétrarque (1304-1374), Canzoniere
-Boccace (1313-1375), Décaméron (1349-1353)
-Giacomo Casanova (1725-1798), Histoire de ma vie (1789-1798)</t>
         </is>
       </c>
     </row>
@@ -683,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
+          <t>Littérature_érotique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,81 +718,455 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Littérature européenne</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Danemark</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Søren Kierkegaard (1813-1855), L'alternative (notamment le Journal du séducteur) (1843)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Littérature européenne</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Europe centrale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Leopold von Sacher-Masoch (1836-1895), La Vénus à la fourrure (1870)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Littérature européenne</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pétrarque (1304-1374), Canzoniere
+Boccace (1313-1375), Décaméron (1349-1353)
+Giacomo Casanova (1725-1798), Histoire de ma vie (1789-1798)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Littérature française</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ceci est une liste non exhaustive des livres en français, par ordre de siècle, puis alphabétique d’auteur.
-Moyen Âge
-XIIe et XIIIe siècles
-Le Moyen Âge invente le roman courtois, illustré par Chrétien de Troyes. Ce genre littéraire décrit les aventures initiatiques de grands chevaliers héroïques qui doivent gagner le cœur de l'aimée. La correspondance entre Héloïse et Abélard offre le cas exceptionnel d'une correspondance licencieuse au Moyen Âge, à la fin tragique[14].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceci est une liste non exhaustive des livres en français, par ordre de siècle, puis alphabétique d’auteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Littérature française</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>XIIe et XIIIe siècles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Moyen Âge invente le roman courtois, illustré par Chrétien de Troyes. Ce genre littéraire décrit les aventures initiatiques de grands chevaliers héroïques qui doivent gagner le cœur de l'aimée. La correspondance entre Héloïse et Abélard offre le cas exceptionnel d'une correspondance licencieuse au Moyen Âge, à la fin tragique.
 Tristan et Iseut
 Chrétien de Troyes (1135-1190), Lancelot ou le Chevalier de la charrette, Yvain ou le Chevalier au lion et Perceval ou le Conte du Graal
-Le Roman de la Rose
-Renaissance
-XVe siècle
-François Villon (1431-après 1463) : Le Jargon ou Jobelin de Maistre François Villon, six ballades publiées en 1489[15]
-XVIe siècle
-François Rabelais (1483/1494-1553), Pantagruel (1532) et Gargantua (1534)
-Marguerite de Valois (1492-1549) : L'Heptaméron, recueil de nouvelles publié en 1558
-XVIIe siècle
-L'École des filles, ouvrage de 1655 considéré comme le premier roman érotique de la littérature française[16]
+Le Roman de la Rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Littérature française</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Renaissance</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>XVe siècle</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>François Villon (1431-après 1463) : Le Jargon ou Jobelin de Maistre François Villon, six ballades publiées en 1489</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Littérature française</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Renaissance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>XVIe siècle</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>François Rabelais (1483/1494-1553), Pantagruel (1532) et Gargantua (1534)
+Marguerite de Valois (1492-1549) : L'Heptaméron, recueil de nouvelles publié en 1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Littérature française</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Renaissance</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>XVIIe siècle</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L'École des filles, ouvrage de 1655 considéré comme le premier roman érotique de la littérature française
 Jean de La Fontaine (1621-1698) :Contes et nouvelles en vers, réunis en cinq livres publiés respectivement en 1664, 1665, 1666, 1671 et 1674
 Claude Le Petit (1638-1662) :L'Heure du berger, recueil publié en 1662
 Molière (1622-1673), Dom Juan ou le Festin de pierre (1665)
-Charles Sorel (1602-1674), Histoire comique de Francion, déclinée en trois versions[17] :Histoire comique de Francion en laquelle sont découvertes les plus subtiles finesses et trompeuses inventions tant des hommes que des femmes de toutes sortes de conditions et d'âge, publiée en 1623L'Histoire comique de Francion où les Tromperies, les Subtiliser, les mauvaises humeurs, les sottises et tous les autres vices de quelques personnes de ce siècle sont naïvement représentez, publiée en 1626La vraie Histoire comique de Francion, composée par Nicolas de Moulinet, sieur du Parc, gentilhomme lorrain, publiée en 1633
+Charles Sorel (1602-1674), Histoire comique de Francion, déclinée en trois versions :Histoire comique de Francion en laquelle sont découvertes les plus subtiles finesses et trompeuses inventions tant des hommes que des femmes de toutes sortes de conditions et d'âge, publiée en 1623L'Histoire comique de Francion où les Tromperies, les Subtiliser, les mauvaises humeurs, les sottises et tous les autres vices de quelques personnes de ce siècle sont naïvement représentez, publiée en 1626La vraie Histoire comique de Francion, composée par Nicolas de Moulinet, sieur du Parc, gentilhomme lorrain, publiée en 1633
 François-Vatable-Béroalde de Verville, (1556-après 1623) : Le Moyen de parvenir, sous-titré Œuvre contenant la raison de tout ce qui a été, est et sera, roman paru en 1610
-Le Parnasse satyrique recueil publié en 1622 et attribué à Théophile de Viau (1590-1626)
-Période moderne
-XVIIIe siècle
-Denis Diderot[18] (1713-1784) : Les Bijoux indiscrets, publiés en 1748 ; La Religieuse (1781) ; Supplément au Voyage de Bougainville (1774)
+Le Parnasse satyrique recueil publié en 1622 et attribué à Théophile de Viau (1590-1626)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Littérature française</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>XVIIIe siècle</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Denis Diderot (1713-1784) : Les Bijoux indiscrets, publiés en 1748 ; La Religieuse (1781) ; Supplément au Voyage de Bougainville (1774)
 Pierre Choderlos de Laclos (1741-1803), Les Liaisons dangereuses (1782)
-Jean-Charles Gervaise de Latouche (1715-1782) : Histoire de Dom Bougre, portier des chartreux, écrite par lui-même[19], publiée en 1741
+Jean-Charles Gervaise de Latouche (1715-1782) : Histoire de Dom Bougre, portier des chartreux, écrite par lui-même, publiée en 1741
 Charles-Joseph de Ligne (1735-1814), Contes immoraux, publiés tardivement en 1947
 Jean-Baptiste Louvet de Couvray (1760-1797), Les Amours du chevalier de Faublas, roman publié en 1787-1790
-Honoré-Gabriel Riqueti de Mirabeau (1749-1791) :Lettres à Sophie, recueil de correspondance publié en 1792[20]
+Honoré-Gabriel Riqueti de Mirabeau (1749-1791) :Lettres à Sophie, recueil de correspondance publié en 1792
 Montesquieu, Le Temple de Gnide, publié sans nom d’auteur en 1725
 Andréa de Nerciat (1739-1800) :Le Doctorat impromptu, récit publié en 1788Les Aphrodites ou Fragments thali-priapiques pour servir à l'histoire du
 Julien Offray de La Mettrie (1709-1751), L'Art de jouir, essai publié en 1740
-Restif de La Bretonne, (1754-1806) :L'Anti-Justine, publié en 1798[21]
-Jacques Rochette de La Morlière, (1719-1783), Angola, conte féerique publié en 1746[22]
-Marquis de Sade[23] (1740-1814) :Les Cent vingt journées de Sodome ou l’École du libertinage[24], écrit en 1785, manuscrit disparu à la prise de la Bastille, retrouvé en 1904, publié en 1931-1935 par Maurice HeineJustine ou les Malheurs de la vertu, publié en 1791Aline et Valcour publié en 1795La Philosophie dans le boudoir, publié en 1795La Nouvelle Justine, suivie de l’Histoire de Juliette, ou les Prospérités du vice publiés en 1799Les Crimes de l'amour publié en 1800La Marquise de Gange, publié en 1813.
-XIXe siècle
-L'historienne Annie Stora-Lamarre a étudié l'univers de la littérature clandestine durant la période de la Troisième République. Face à l'alphabétisation croissante de la population, les autorités et les ligues morales sont particulièrement sensibles à la moralisation de la société : on assiste à une forme de combat commun entre les défenseurs de la République et les ligueurs cléricaux[25]. Ayant analysé les livres de l'enfer de la Bibliothèque nationale, l'historienne propose une analyse globale de la production éditoriale au tournant du siècle : les ouvrages sont majoritairement imprimés à l'étranger, dans les villes d'Amsterdam, de Londres, de Genève ou de Bruxelles[26]. Les auteurs écrivent sous pseudonymes pour éviter les poursuites judiciaires, et sont pour la plupart, de sexe masculin[27]. On retrouve quelques exceptions, comme le livre Amélie de Saint-Far ou la fatale erreur, écrit par une certaine Madame C..., texte attribué à Félicité de Choiseul-Meuse[26].
-Le récit de la littérature érotique du XIXe siècle se déroule dans un lieu clos : le pensionnat, le couvent ou la maison de plaisir sont les endroits les plus usés[28]. Le contexte anticlérical de la fin du XIXe se révèle dans les catalogues clandestins des éditeurs, qui mettent « l'accent sur les couvents et les gens d’Église »[29]. L'auteur Alphonse Monas, par exemple, publie une série en trois tomes intitulée Le couvent des Bleuets à partir de 1900. L'exotisme est également recherché par les auteurs, avec des récits se basant en Russie, qui est un des pays étrangers favoris, à l'image des Souvenirs d'une princesse russe d'après son journal particulier et secret, où une princesse pratique sa sexualité avec ses moujiks.
+Restif de La Bretonne, (1754-1806) :L'Anti-Justine, publié en 1798
+Jacques Rochette de La Morlière, (1719-1783), Angola, conte féerique publié en 1746
+Marquis de Sade (1740-1814) :Les Cent vingt journées de Sodome ou l’École du libertinage, écrit en 1785, manuscrit disparu à la prise de la Bastille, retrouvé en 1904, publié en 1931-1935 par Maurice HeineJustine ou les Malheurs de la vertu, publié en 1791Aline et Valcour publié en 1795La Philosophie dans le boudoir, publié en 1795La Nouvelle Justine, suivie de l’Histoire de Juliette, ou les Prospérités du vice publiés en 1799Les Crimes de l'amour publié en 1800La Marquise de Gange, publié en 1813.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Littérature française</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L'historienne Annie Stora-Lamarre a étudié l'univers de la littérature clandestine durant la période de la Troisième République. Face à l'alphabétisation croissante de la population, les autorités et les ligues morales sont particulièrement sensibles à la moralisation de la société : on assiste à une forme de combat commun entre les défenseurs de la République et les ligueurs cléricaux. Ayant analysé les livres de l'enfer de la Bibliothèque nationale, l'historienne propose une analyse globale de la production éditoriale au tournant du siècle : les ouvrages sont majoritairement imprimés à l'étranger, dans les villes d'Amsterdam, de Londres, de Genève ou de Bruxelles. Les auteurs écrivent sous pseudonymes pour éviter les poursuites judiciaires, et sont pour la plupart, de sexe masculin. On retrouve quelques exceptions, comme le livre Amélie de Saint-Far ou la fatale erreur, écrit par une certaine Madame C..., texte attribué à Félicité de Choiseul-Meuse.
+Le récit de la littérature érotique du XIXe siècle se déroule dans un lieu clos : le pensionnat, le couvent ou la maison de plaisir sont les endroits les plus usés. Le contexte anticlérical de la fin du XIXe se révèle dans les catalogues clandestins des éditeurs, qui mettent « l'accent sur les couvents et les gens d’Église ». L'auteur Alphonse Monas, par exemple, publie une série en trois tomes intitulée Le couvent des Bleuets à partir de 1900. L'exotisme est également recherché par les auteurs, avec des récits se basant en Russie, qui est un des pays étrangers favoris, à l'image des Souvenirs d'une princesse russe d'après son journal particulier et secret, où une princesse pratique sa sexualité avec ses moujiks.
 Jules Barbey d'Aurevilly (1808-1889) :Une vieille maîtresse, roman rédigé en 1844 et publié en 1851Un prêtre marié, roman publié en 1864Les Diaboliques, recueil de nouvelles publié en 1874Ce qui ne meurt pas, roman publié en 1884
-Honoré de Balzac (1799-1850) : Physiologie du mariage[30], étude publiée en 1829
+Honoré de Balzac (1799-1850) : Physiologie du mariage, étude publiée en 1829
 Charles Baudelaire (1821-1867) : Les Fleurs du mal, recueil poétique publié en 1857
 Joseph-Pétrus Borel (1809-1859) :Champavert, contes immoraux publiés en 1853
 Isidore-Lucien Ducasse, comte de Lautréamont (1846-1870) : Les Chants de Maldoror, publiés en 1869
 Marguerite Eymery (1860-1953), dite Rachilde :Monsieur Vénus, roman paru en 1884
 Gustave Flaubert (1821-1880) : Madame Bovary, roman paru en 1887
 Anatole France, nom de plume de François-Anatole Thibault (1844-1924) : Thaïs, roman publié en 1890
-Théophile Gautier (1811-1872) :Mademoiselle de Maupin, roman publié en 1835Lettre à la Présidente, correspondance érotique publiée en 1890[31]
+Théophile Gautier (1811-1872) :Mademoiselle de Maupin, roman publié en 1835Lettre à la Présidente, correspondance érotique publiée en 1890
 Théodore Hannon (1851-1916) : recueil poétique publié en 1879 et 1881
 Joris-Karl Huysmans (1848-1907) :À rebours, roman publié en 1884Là-bas, roman publié en 1891
 Pierre Louÿs (1870-1925) :Aphrodite, mœurs antiques, roman publié en 1896Les Chansons de Bilitis, poèmes lyriques publiés en 1894La femme et le pantin, roman publié en 1898Trois filles de leur mère, roman publié en 1926
 Stéphane Mallarmé (1842-1898) : L'Après-midi d'un faune, églogue publiée en 1876
 Guy de Maupassant (1850-1893) :Une partie de campagne, publié en 1881Le Moyen de Roger, nouvelle publiée en 1883L'Ami Patience, publié en 1883Au bord du lit, publié en 1883Imprudence, conte publié en 1885À la feuille de rose, maison turque, pièce de théâtre jouée en 1875, éditée en 1945Allouma, publié en 1889Mouche, nouvelle publiée en 1890Les Caresses
 Octave Mirbeau (1848-1917) :Le Jardin des supplices, publié en 1899Le Journal d'une femme de chambre, publié en 1900
-Henry Monnier (1799-1877) : Les Deux Gougnottes, pièce de théâtre publiée en 1864[32]
+Henry Monnier (1799-1877) : Les Deux Gougnottes, pièce de théâtre publiée en 1864
 Jean Richepin (1849-1926) : La Chanson des gueux, recueil poétique publié en 1876
 Marcel Schwob (1867-1905) : Le Livre de Monelle, poème en prose publié en 1895
 Stendhal (1783-1842), pseudonyme de Henri Beyle :Armance, roman publié en 1827Lamiel, publié posthumément en 1889
-Paul Verlaine (1844-1896),Les Amies, six sonnets publiés clandestinement en 1867[33]Parallèlement, recueil de poèmes publié en 1889
-Émile Zola (1840-1902) : Nana, roman paru en 1879
-Période contemporaine
-XXe siècle
-L'érotisme face à la libération des mœurs
-À la fin du XXe siècle, les éditeurs ne sont plus inquiétés par les autorités et la censure pour publier leurs ouvrages : la littérature érotique « commence à encombrer les programmes éditoriaux »[34] dans les années 1990. Les éditions Robert Laffont font paraître en 1993, dans la collection « Bouquins », les Romans libertins du XVIIIe siècle[35], Gallimard publie en « Folio » les livres de Georges Bataille et les éditions Zulma et Arléa lancent leurs collections dédiées au genre[34]. En 1998, Claude Bard fonde les éditions La Musardine à Paris et s'associe à Sophie Rongiéras, qui se spécialise dans la publication de textes érotiques.
-Le lectorat est au rendez-vous, puisque certains ouvrages rencontrent un réel succès éditorial, comme Ma vie secrète, roman érotique anglais du XIXe siècle publié pour la première fois dans son intégralité par les éditions Stock et vendu à 25 000 exemplaires[36],[37]. Les maisons d'éditions traditionnelles accueillent donc, en leur sein, « les titres les plus osés »[36], à l'image de Grasset qui publie Baise-moi de Virginie Despentes en 1999[38].
-En miroir de cette publication se faisant sans scandales et une sexualité devenant omniprésente en cette fin de siècle, certains éditeurs et auteurs n'hésitent pas à déclarer « l'érotisme en voie d'extinction »[39]. Le philosophe américain Allan Bloom écrit en 1996 que ses contemporains vivent « la désérotisation du monde, qui accompagne son désenchantement [...] L'isolement, le sentiment de ne pouvoir établir un contact en profondeur avec d'autres êtres humains, telle est, semble-t-il, la maladie de notre temps »[40]. Philippe Murray déclare pour sa part en 2000 qu' « il en va aujourd’hui de l’existence sexuelle [...] comme de ces lieux de mémoire qui ne sont plus que des motifs d’attraction et
-d’animation... », alors que Jean-Jacques Pauvert estime que l'érotisme sous sa forme littéraire n'existe plus[41].
+Paul Verlaine (1844-1896),Les Amies, six sonnets publiés clandestinement en 1867Parallèlement, recueil de poèmes publié en 1889
+Émile Zola (1840-1902) : Nana, roman paru en 1879</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Littérature française</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>L'érotisme face à la libération des mœurs</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>À la fin du XXe siècle, les éditeurs ne sont plus inquiétés par les autorités et la censure pour publier leurs ouvrages : la littérature érotique « commence à encombrer les programmes éditoriaux » dans les années 1990. Les éditions Robert Laffont font paraître en 1993, dans la collection « Bouquins », les Romans libertins du XVIIIe siècle, Gallimard publie en « Folio » les livres de Georges Bataille et les éditions Zulma et Arléa lancent leurs collections dédiées au genre. En 1998, Claude Bard fonde les éditions La Musardine à Paris et s'associe à Sophie Rongiéras, qui se spécialise dans la publication de textes érotiques.
+Le lectorat est au rendez-vous, puisque certains ouvrages rencontrent un réel succès éditorial, comme Ma vie secrète, roman érotique anglais du XIXe siècle publié pour la première fois dans son intégralité par les éditions Stock et vendu à 25 000 exemplaires,. Les maisons d'éditions traditionnelles accueillent donc, en leur sein, « les titres les plus osés », à l'image de Grasset qui publie Baise-moi de Virginie Despentes en 1999.
+En miroir de cette publication se faisant sans scandales et une sexualité devenant omniprésente en cette fin de siècle, certains éditeurs et auteurs n'hésitent pas à déclarer « l'érotisme en voie d'extinction ». Le philosophe américain Allan Bloom écrit en 1996 que ses contemporains vivent « la désérotisation du monde, qui accompagne son désenchantement [...] L'isolement, le sentiment de ne pouvoir établir un contact en profondeur avec d'autres êtres humains, telle est, semble-t-il, la maladie de notre temps ». Philippe Murray déclare pour sa part en 2000 qu' « il en va aujourd’hui de l’existence sexuelle [...] comme de ces lieux de mémoire qui ne sont plus que des motifs d’attraction et
+d’animation... », alors que Jean-Jacques Pauvert estime que l'érotisme sous sa forme littéraire n'existe plus.
 Le Livre d'heures, publié en 1994 à Paris par les Éd. Phébus,
-Guillaume Apollinaire (1880-1918), nom de plume de Wilhem Apollinaris de Kostrowitzky :Les Onze Mille Verges, roman publié en 1907Poèmes à Lou, publiés en 1969[42]
+Guillaume Apollinaire (1880-1918), nom de plume de Wilhem Apollinaris de Kostrowitzky :Les Onze Mille Verges, roman publié en 1907Poèmes à Lou, publiés en 1969
 Louis Aragon (1897-1982), Le Con d'Irène, roman publié en 1928
-Georges Bataille[43](1897-1962) :Histoire de l'œil, publié en 1928 sous le pseudonyme de Lord AuchLe Bleu du ciel, récit de 1935 publié en 1957Madame Edwarda, publié en 1941 sous le pseudonyme de Pierre AngéliqueL'Expérience intérieure, publié en 1943Le Petit, publié en 1943 sous le pseudonyme de Louis TrenteLe Mort, écrit entre 1942 et 1944, publié posthumément en 1964La Part maudite, publié en 1949L'Abbé C., publié en 1950La Littérature et le Mal, publié en 1957L'Impossible, publié en 1962[44]
+Georges Bataille(1897-1962) :Histoire de l'œil, publié en 1928 sous le pseudonyme de Lord AuchLe Bleu du ciel, récit de 1935 publié en 1957Madame Edwarda, publié en 1941 sous le pseudonyme de Pierre AngéliqueL'Expérience intérieure, publié en 1943Le Petit, publié en 1943 sous le pseudonyme de Louis TrenteLe Mort, écrit entre 1942 et 1944, publié posthumément en 1964La Part maudite, publié en 1949L'Abbé C., publié en 1950La Littérature et le Mal, publié en 1957L'Impossible, publié en 1962
 Jean de Berg, L’Image, publié en 1956
 André Breton (1896-1966), Nadja (1928), Les Vases communicants (1932) et L'Amour fou (1937)
 Régine Deforges (1935-), Les Contes pervers (1980)
@@ -780,85 +1174,127 @@
 Virginie Despentes (1969-), Baise-moi, 1994
 Jean Genet (1910-1986) :Notre-Dame des Fleurs publié en 1944Miracle de la rose publié en 1946Les Bonnes, pièce de théâtre en un acte publiée en 1947Querelle de Brest, publié en 1947Le Balcon, publié en 1956
 Nicolas Genka (1937-2009), L'Épi monstre, publié en 1961 ; Jeanne la pudeur, publié en 1964
-André Gide (1869-1951), Corydon, essai publié en 1924[45]
+André Gide (1869-1951), Corydon, essai publié en 1924
 Marcel Jouhandeau (1888-1979), Chronique d'une passion, publié en 1949
-Pierre Jean Jouve (1887-1976), Aventure de Catherine Crachat, romans publiés en 1928 et 1931[46]
+Pierre Jean Jouve (1887-1976), Aventure de Catherine Crachat, romans publiés en 1928 et 1931
 Joseph Kessel (1898-1979), Belle de jour, publiée en 1929
 Pierre Klossowski (1905-2001), Le Bain de Diane, publié en 1956
-Paul Léautaud (1872-1955) :Amour, aphorismes publiés en 1934Amours, livre de souvenirs publié en 1906 dans le Mercure de France[47]
+Paul Léautaud (1872-1955) :Amour, aphorismes publiés en 1934Amours, livre de souvenirs publié en 1906 dans le Mercure de France
 Violette Leduc (1907-1972),La Bâtarde, publiée en 1964Thérèse et Isabelle, roman publié en 1966
 Sophie Loizeau, Environs du bouc.
-Pierre Louÿs (1870-1925) :Les Aventures du roi Pausole, roman publié en 1901Manuel de civilité pour les petites filles à l'usage des maisons d'éducation, publié en 1926[48]Trois filles de leur mère, publié en 1926[49]La Femme, poèmes publiés en 1938
+Pierre Louÿs (1870-1925) :Les Aventures du roi Pausole, roman publié en 1901Manuel de civilité pour les petites filles à l'usage des maisons d'éducation, publié en 1926Trois filles de leur mère, publié en 1926La Femme, poèmes publiés en 1938
 Vladimir Nabokov (1899-1977), Lolita (1955)
 Anaïs Nin (1903-1977) : Journal, 1966
 André Pieyre de Mandiargues (1909-1991) :Marbre, publié en 1953Le Lis de mer, publié en 1956La Marée, publié en 1959La Motocyclette, publié en 1963
 Pauline Réage, Histoire d'O, roman publié en 1954
-Boris Vian (1920-1959), sous le pseudonyme de Vernon Sullivan, publia J'irai cracher sur vos tombes (1946), qui, considéré comme pornographique et immoral, fut interdit en 1949, et condamna son auteur pour outrage aux bonnes mœurs.
-XXIe siècle
-Angela Behelle : La Société, publié de 2012 à 2017Vanessa Duriès, Le Lien, publié en 2000
-Hervé Le Tellier, La Chapelle Sextine, nouvelles publiées en 2004[50]
+Boris Vian (1920-1959), sous le pseudonyme de Vernon Sullivan, publia J'irai cracher sur vos tombes (1946), qui, considéré comme pornographique et immoral, fut interdit en 1949, et condamna son auteur pour outrage aux bonnes mœurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Littérature française</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Angela Behelle : La Société, publié de 2012 à 2017Vanessa Duriès, Le Lien, publié en 2000
+Hervé Le Tellier, La Chapelle Sextine, nouvelles publiées en 2004
 Jonathan Littell, Une vieille histoire. Nouvelle version (2018)
 Bruno Le Maire, Fugue américaine, publié en 2023</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Livres dans les autres langues</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bernard Gui, né Bernard de la Guionie (1260-1331), Practica officii inquisitionis heretice pravitatis, composée vers 1321 et publiée à Paris par Picard en 1886[51]
-Nicolas Chorier (1612-1692), Aloisiæ Sigeæ, Toletanæ, Satyra sotadica de arcanis amoris et Veneris, Aloisia hispanice scripsit, latinitate donavit Joannes Meursius V. C. ou L'Académie des Dames, dialogues saphiques publiés en 1660[52]
-Jacques Boileau (1633-1716), dit l'abbé Boileau, Historia flagellantium, rédigé en latin, puis traduit[53] et publié en français en 1701</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Bernard Gui, né Bernard de la Guionie (1260-1331), Practica officii inquisitionis heretice pravitatis, composée vers 1321 et publiée à Paris par Picard en 1886
+Nicolas Chorier (1612-1692), Aloisiæ Sigeæ, Toletanæ, Satyra sotadica de arcanis amoris et Veneris, Aloisia hispanice scripsit, latinitate donavit Joannes Meursius V. C. ou L'Académie des Dames, dialogues saphiques publiés en 1660
+Jacques Boileau (1633-1716), dit l'abbé Boileau, Historia flagellantium, rédigé en latin, puis traduit et publié en français en 1701</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Littérature_érotique</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Litt%C3%A9rature_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Autobiographies</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Jean-Jacques Rousseau (1712-1778), Les Confessions, livres I à VI publiés en 1782, livres VII à XII, en 1788.
 Maud de Belleroche, L'Ordinatrice ou Mémoires d'une femme de quarante ans, publié en 1968.
